--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Nts-Sort1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Nts-Sort1.xlsx
@@ -543,10 +543,10 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.353686666666667</v>
+        <v>1.187716</v>
       </c>
       <c r="H2">
-        <v>4.06106</v>
+        <v>3.563148</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.502378</v>
+        <v>1.837384</v>
       </c>
       <c r="N2">
-        <v>1.507134</v>
+        <v>5.512152</v>
       </c>
       <c r="O2">
-        <v>0.0189742916423209</v>
+        <v>0.0635335947613339</v>
       </c>
       <c r="P2">
-        <v>0.0189742916423209</v>
+        <v>0.0635335947613339</v>
       </c>
       <c r="Q2">
-        <v>0.6800624002266666</v>
+        <v>2.182290374944</v>
       </c>
       <c r="R2">
-        <v>6.12056160204</v>
+        <v>19.640613374496</v>
       </c>
       <c r="S2">
-        <v>0.0189742916423209</v>
+        <v>0.0635335947613339</v>
       </c>
       <c r="T2">
-        <v>0.0189742916423209</v>
+        <v>0.0635335947613339</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.353686666666667</v>
+        <v>1.187716</v>
       </c>
       <c r="H3">
-        <v>4.06106</v>
+        <v>3.563148</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>1.807088</v>
       </c>
       <c r="O3">
-        <v>0.02275060793223323</v>
+        <v>0.02082867030699976</v>
       </c>
       <c r="P3">
-        <v>0.02275060793223323</v>
+        <v>0.02082867030699976</v>
       </c>
       <c r="Q3">
-        <v>0.8154103103644443</v>
+        <v>0.7154357770026667</v>
       </c>
       <c r="R3">
-        <v>7.33869279328</v>
+        <v>6.438921993024</v>
       </c>
       <c r="S3">
-        <v>0.02275060793223323</v>
+        <v>0.02082867030699976</v>
       </c>
       <c r="T3">
-        <v>0.02275060793223323</v>
+        <v>0.02082867030699976</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.353686666666667</v>
+        <v>1.187716</v>
       </c>
       <c r="H4">
-        <v>4.06106</v>
+        <v>3.563148</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.474800666666667</v>
+        <v>5.528959666666668</v>
       </c>
       <c r="N4">
-        <v>16.424402</v>
+        <v>16.586879</v>
       </c>
       <c r="O4">
-        <v>0.2067774952981744</v>
+        <v>0.1911819646376369</v>
       </c>
       <c r="P4">
-        <v>0.2067774952981744</v>
+        <v>0.1911819646376369</v>
       </c>
       <c r="Q4">
-        <v>7.411164665124445</v>
+        <v>6.566833859454669</v>
       </c>
       <c r="R4">
-        <v>66.70048198612001</v>
+        <v>59.10150473509202</v>
       </c>
       <c r="S4">
-        <v>0.2067774952981744</v>
+        <v>0.1911819646376369</v>
       </c>
       <c r="T4">
-        <v>0.2067774952981744</v>
+        <v>0.1911819646376369</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.353686666666667</v>
+        <v>1.187716</v>
       </c>
       <c r="H5">
-        <v>4.06106</v>
+        <v>3.563148</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.461044333333334</v>
+        <v>3.046454666666667</v>
       </c>
       <c r="N5">
-        <v>22.383133</v>
+        <v>9.139364</v>
       </c>
       <c r="O5">
-        <v>0.281795841252906</v>
+        <v>0.1053411895666744</v>
       </c>
       <c r="P5">
-        <v>0.281795841252906</v>
+        <v>0.1053411895666744</v>
       </c>
       <c r="Q5">
-        <v>10.09991623344222</v>
+        <v>3.618322950874667</v>
       </c>
       <c r="R5">
-        <v>90.89924610098001</v>
+        <v>32.56490655787201</v>
       </c>
       <c r="S5">
-        <v>0.281795841252906</v>
+        <v>0.1053411895666744</v>
       </c>
       <c r="T5">
-        <v>0.281795841252906</v>
+        <v>0.1053411895666744</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.353686666666667</v>
+        <v>1.187716</v>
       </c>
       <c r="H6">
-        <v>4.06106</v>
+        <v>3.563148</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.423250333333333</v>
+        <v>9.021246333333332</v>
       </c>
       <c r="N6">
-        <v>22.269751</v>
+        <v>27.063739</v>
       </c>
       <c r="O6">
-        <v>0.2803684014001858</v>
+        <v>0.3119392618985303</v>
       </c>
       <c r="P6">
-        <v>0.2803684014001858</v>
+        <v>0.3119392618985303</v>
       </c>
       <c r="Q6">
-        <v>10.04875499956222</v>
+        <v>10.71467861004133</v>
       </c>
       <c r="R6">
-        <v>90.43879499606001</v>
+        <v>96.432107490372</v>
       </c>
       <c r="S6">
-        <v>0.2803684014001858</v>
+        <v>0.3119392618985303</v>
       </c>
       <c r="T6">
-        <v>0.2803684014001858</v>
+        <v>0.3119392618985303</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.353686666666667</v>
+        <v>1.187716</v>
       </c>
       <c r="H7">
-        <v>4.06106</v>
+        <v>3.563148</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.012936333333333</v>
+        <v>8.883473666666667</v>
       </c>
       <c r="N7">
-        <v>15.038809</v>
+        <v>26.650421</v>
       </c>
       <c r="O7">
-        <v>0.1893333624741797</v>
+        <v>0.3071753188288246</v>
       </c>
       <c r="P7">
-        <v>0.1893333624741797</v>
+        <v>0.3071753188288246</v>
       </c>
       <c r="Q7">
-        <v>6.785945075282222</v>
+        <v>10.55104380947867</v>
       </c>
       <c r="R7">
-        <v>61.07350567754</v>
+        <v>94.95939428530802</v>
       </c>
       <c r="S7">
-        <v>0.1893333624741797</v>
+        <v>0.3071753188288246</v>
       </c>
       <c r="T7">
-        <v>0.1893333624741797</v>
+        <v>0.3071753188288246</v>
       </c>
     </row>
   </sheetData>
